--- a/final_data_pipeline/output/322130_finishing_elec.xlsx
+++ b/final_data_pipeline/output/322130_finishing_elec.xlsx
@@ -1295,7 +1295,7 @@
         <v>70</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1316,10 +1316,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R12">
-        <v>1.800714285714286</v>
+        <v>1.867772014163364</v>
       </c>
       <c r="S12">
-        <v>1.963947368421052</v>
+        <v>2.045100507661769</v>
       </c>
       <c r="T12">
         <v>59.56173227185896</v>
@@ -1354,7 +1354,7 @@
         <v>82</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>13.76976495726495</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1369,10 +1369,10 @@
         <v>295756.2806761013</v>
       </c>
       <c r="R13">
-        <v>2.983181818181818</v>
+        <v>3.202698560003336</v>
       </c>
       <c r="S13">
-        <v>3.590555555555556</v>
+        <v>3.918847414586112</v>
       </c>
       <c r="T13">
         <v>36.96953508451266</v>
@@ -2040,7 +2040,7 @@
         <v>82</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -2055,10 +2055,10 @@
         <v>286563.8113041536</v>
       </c>
       <c r="R26">
-        <v>2.983181818181818</v>
+        <v>3.745925377867032</v>
       </c>
       <c r="S26">
-        <v>3.590555555555556</v>
+        <v>4.780194493904943</v>
       </c>
       <c r="T26">
         <v>35.82047641301921</v>
@@ -2099,7 +2099,7 @@
         <v>70</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>21.19907407407406</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -2120,10 +2120,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R27">
-        <v>1.800714285714286</v>
+        <v>2.015705049109126</v>
       </c>
       <c r="S27">
-        <v>1.963947368421052</v>
+        <v>2.22640738080769</v>
       </c>
       <c r="T27">
         <v>57.71048029371813</v>
@@ -2164,7 +2164,7 @@
         <v>70</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>2.356481481481501</v>
       </c>
       <c r="L28">
         <v>8000</v>
@@ -2185,10 +2185,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R28">
-        <v>1.800714285714286</v>
+        <v>1.678525338046114</v>
       </c>
       <c r="S28">
-        <v>1.963947368421052</v>
+        <v>1.817698795724144</v>
       </c>
       <c r="T28">
         <v>107.0795230692132</v>
@@ -2223,7 +2223,7 @@
         <v>82</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>2.356481481481501</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2238,10 +2238,10 @@
         <v>531707.8646230728</v>
       </c>
       <c r="R29">
-        <v>2.983181818181818</v>
+        <v>2.619185573867416</v>
       </c>
       <c r="S29">
-        <v>3.590555555555556</v>
+        <v>3.069228739776626</v>
       </c>
       <c r="T29">
         <v>66.46348307788409</v>
@@ -2606,7 +2606,7 @@
         <v>82</v>
       </c>
       <c r="K36">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L36">
         <v>8000</v>
@@ -2621,10 +2621,10 @@
         <v>173455.9440940882</v>
       </c>
       <c r="R36">
-        <v>2.983181818181818</v>
+        <v>3.702873262981926</v>
       </c>
       <c r="S36">
-        <v>3.590555555555556</v>
+        <v>4.709243017136692</v>
       </c>
       <c r="T36">
         <v>21.68199301176102</v>
@@ -2665,7 +2665,7 @@
         <v>70</v>
       </c>
       <c r="K37">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L37">
         <v>8000</v>
@@ -2686,10 +2686,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R37">
-        <v>1.800714285714286</v>
+        <v>2.004820578273036</v>
       </c>
       <c r="S37">
-        <v>1.963947368421052</v>
+        <v>2.212959200483225</v>
       </c>
       <c r="T37">
         <v>34.9319259745798</v>
@@ -2730,7 +2730,7 @@
         <v>70</v>
       </c>
       <c r="K38">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L38">
         <v>8000</v>
@@ -2751,10 +2751,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R38">
-        <v>1.800714285714286</v>
+        <v>2.017497406510892</v>
       </c>
       <c r="S38">
-        <v>1.963947368421052</v>
+        <v>2.228623569098047</v>
       </c>
       <c r="T38">
         <v>75.31909748715492</v>
@@ -2789,7 +2789,7 @@
         <v>82</v>
       </c>
       <c r="K39">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L39">
         <v>8000</v>
@@ -2804,10 +2804,10 @@
         <v>374000.138797279</v>
       </c>
       <c r="R39">
-        <v>2.983181818181818</v>
+        <v>3.753065762999045</v>
       </c>
       <c r="S39">
-        <v>3.590555555555556</v>
+        <v>4.792008787587529</v>
       </c>
       <c r="T39">
         <v>46.75001734965987</v>
@@ -2842,7 +2842,7 @@
         <v>82</v>
       </c>
       <c r="K40">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L40">
         <v>8000</v>
@@ -2857,10 +2857,10 @@
         <v>89904.03482076045</v>
       </c>
       <c r="R40">
-        <v>2.983181818181818</v>
+        <v>3.33095021773865</v>
       </c>
       <c r="S40">
-        <v>3.590555555555556</v>
+        <v>4.115751405322535</v>
       </c>
       <c r="T40">
         <v>11.23800435259506</v>
@@ -2901,7 +2901,7 @@
         <v>70</v>
       </c>
       <c r="K41">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L41">
         <v>8000</v>
@@ -2922,10 +2922,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R41">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="S41">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="T41">
         <v>18.10558355654463</v>
@@ -2960,7 +2960,7 @@
         <v>82</v>
       </c>
       <c r="K42">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L42">
         <v>8000</v>
@@ -2975,10 +2975,10 @@
         <v>409239.9259745825</v>
       </c>
       <c r="R42">
-        <v>2.983181818181818</v>
+        <v>2.455497817501559</v>
       </c>
       <c r="S42">
-        <v>3.590555555555556</v>
+        <v>2.843656807626497</v>
       </c>
       <c r="T42">
         <v>51.15499074682281</v>
@@ -3019,7 +3019,7 @@
         <v>70</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L43">
         <v>8000</v>
@@ -3040,10 +3040,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R43">
-        <v>1.800714285714286</v>
+        <v>1.618523362263702</v>
       </c>
       <c r="S43">
-        <v>1.963947368421052</v>
+        <v>1.746638928617865</v>
       </c>
       <c r="T43">
         <v>82.41596374600033</v>
@@ -3202,7 +3202,7 @@
         <v>70</v>
       </c>
       <c r="K46">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L46">
         <v>8000</v>
@@ -3223,10 +3223,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R46">
-        <v>1.800714285714286</v>
+        <v>1.862155209238257</v>
       </c>
       <c r="S46">
-        <v>1.963947368421052</v>
+        <v>2.038278558917324</v>
       </c>
       <c r="T46">
         <v>8.652535208826771</v>
@@ -3261,7 +3261,7 @@
         <v>82</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="L47">
         <v>8000</v>
@@ -3276,10 +3276,10 @@
         <v>42964.52662090698</v>
       </c>
       <c r="R47">
-        <v>2.983181818181818</v>
+        <v>3.183723085360894</v>
       </c>
       <c r="S47">
-        <v>3.590555555555556</v>
+        <v>3.890038835634921</v>
       </c>
       <c r="T47">
         <v>5.370565827613373</v>
@@ -3668,7 +3668,7 @@
         <v>82</v>
       </c>
       <c r="K54">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L54">
         <v>8000</v>
@@ -3683,10 +3683,10 @@
         <v>965791.3122671177</v>
       </c>
       <c r="R54">
-        <v>2.983181818181818</v>
+        <v>3.629680458828347</v>
       </c>
       <c r="S54">
-        <v>3.590555555555556</v>
+        <v>4.589715938979482</v>
       </c>
       <c r="T54">
         <v>120.7239140333897</v>
@@ -3721,7 +3721,7 @@
         <v>83</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L55">
         <v>8000</v>
@@ -3774,7 +3774,7 @@
         <v>70</v>
       </c>
       <c r="K56">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L56">
         <v>8000</v>
@@ -3795,10 +3795,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R56">
-        <v>1.800714285714286</v>
+        <v>1.98600466835246</v>
       </c>
       <c r="S56">
-        <v>1.963947368421052</v>
+        <v>2.18975222777657</v>
       </c>
       <c r="T56">
         <v>194.498671136385</v>
@@ -3957,7 +3957,7 @@
         <v>70</v>
       </c>
       <c r="K59">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L59">
         <v>8000</v>
@@ -3978,10 +3978,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R59">
-        <v>1.800714285714286</v>
+        <v>2.028520339740724</v>
       </c>
       <c r="S59">
-        <v>1.963947368421052</v>
+        <v>2.242263395092639</v>
       </c>
       <c r="T59">
         <v>25.04487808552879</v>
@@ -4016,7 +4016,7 @@
         <v>82</v>
       </c>
       <c r="K60">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L60">
         <v>8000</v>
@@ -4031,10 +4031,10 @@
         <v>124361.3929620722</v>
       </c>
       <c r="R60">
-        <v>2.983181818181818</v>
+        <v>3.797299903567984</v>
       </c>
       <c r="S60">
-        <v>3.590555555555556</v>
+        <v>4.865495608531995</v>
       </c>
       <c r="T60">
         <v>15.54517412025903</v>
@@ -4075,7 +4075,7 @@
         <v>70</v>
       </c>
       <c r="K61">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L61">
         <v>8000</v>
@@ -4096,10 +4096,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R61">
-        <v>1.800714285714286</v>
+        <v>1.844936767548521</v>
       </c>
       <c r="S61">
-        <v>1.963947368421052</v>
+        <v>2.017393709936214</v>
       </c>
       <c r="T61">
         <v>142.5753281290024</v>
@@ -4134,7 +4134,7 @@
         <v>82</v>
       </c>
       <c r="K62">
-        <v>10</v>
+        <v>12.51681286549706</v>
       </c>
       <c r="L62">
         <v>8000</v>
@@ -4149,10 +4149,10 @@
         <v>707963.7739739026</v>
       </c>
       <c r="R62">
-        <v>2.983181818181818</v>
+        <v>3.126239257907711</v>
       </c>
       <c r="S62">
-        <v>3.590555555555556</v>
+        <v>3.803269267167952</v>
       </c>
       <c r="T62">
         <v>88.49547174673782</v>
@@ -4193,7 +4193,7 @@
         <v>70</v>
       </c>
       <c r="K63">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L63">
         <v>8000</v>
@@ -4214,10 +4214,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R63">
-        <v>1.800714285714286</v>
+        <v>1.904889690449167</v>
       </c>
       <c r="S63">
-        <v>1.963947368421052</v>
+        <v>2.090295475371289</v>
       </c>
       <c r="T63">
         <v>182.1474834198667</v>
@@ -4252,7 +4252,7 @@
         <v>82</v>
       </c>
       <c r="K64">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L64">
         <v>8000</v>
@@ -4267,10 +4267,10 @@
         <v>904460.9714318883</v>
       </c>
       <c r="R64">
-        <v>2.983181818181818</v>
+        <v>3.33095021773865</v>
       </c>
       <c r="S64">
-        <v>3.590555555555556</v>
+        <v>4.115751405322535</v>
       </c>
       <c r="T64">
         <v>113.057621428986</v>
@@ -4305,7 +4305,7 @@
         <v>83</v>
       </c>
       <c r="K65">
-        <v>10</v>
+        <v>15.74228395061728</v>
       </c>
       <c r="L65">
         <v>8000</v>
@@ -4641,7 +4641,7 @@
         <v>70</v>
       </c>
       <c r="K71">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L71">
         <v>8000</v>
@@ -4662,10 +4662,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R71">
-        <v>1.800714285714286</v>
+        <v>1.867546171126113</v>
       </c>
       <c r="S71">
-        <v>1.963947368421052</v>
+        <v>2.044826120875009</v>
       </c>
       <c r="T71">
         <v>56.45993263152648</v>
@@ -4700,7 +4700,7 @@
         <v>82</v>
       </c>
       <c r="K72">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L72">
         <v>8000</v>
@@ -4715,10 +4715,10 @@
         <v>280354.1644172927</v>
       </c>
       <c r="R72">
-        <v>2.983181818181818</v>
+        <v>3.201933436480062</v>
       </c>
       <c r="S72">
-        <v>3.590555555555556</v>
+        <v>3.917684201664166</v>
       </c>
       <c r="T72">
         <v>35.04427055216158</v>
@@ -4753,7 +4753,7 @@
         <v>84</v>
       </c>
       <c r="K73">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L73">
         <v>8000</v>
@@ -4806,7 +4806,7 @@
         <v>70</v>
       </c>
       <c r="K74">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L74">
         <v>8000</v>
@@ -4827,10 +4827,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R74">
-        <v>1.800714285714286</v>
+        <v>1.890159325210871</v>
       </c>
       <c r="S74">
-        <v>1.963947368421052</v>
+        <v>2.072335994446373</v>
       </c>
       <c r="T74">
         <v>71.41353200616254</v>
@@ -4865,7 +4865,7 @@
         <v>82</v>
       </c>
       <c r="K75">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="L75">
         <v>8000</v>
@@ -4880,10 +4880,10 @@
         <v>354606.8895324147</v>
       </c>
       <c r="R75">
-        <v>2.983181818181818</v>
+        <v>3.27945034353529</v>
       </c>
       <c r="S75">
-        <v>3.590555555555556</v>
+        <v>4.036221701795472</v>
       </c>
       <c r="T75">
         <v>44.32586119155184</v>
@@ -5879,7 +5879,7 @@
         <v>82</v>
       </c>
       <c r="K93">
-        <v>10</v>
+        <v>19.48611111111111</v>
       </c>
       <c r="L93">
         <v>8000</v>
@@ -5894,10 +5894,10 @@
         <v>152629.8325099519</v>
       </c>
       <c r="R93">
-        <v>2.983181818181818</v>
+        <v>3.604943545926152</v>
       </c>
       <c r="S93">
-        <v>3.590555555555556</v>
+        <v>4.549628470864294</v>
       </c>
       <c r="T93">
         <v>19.07872906374399</v>
@@ -5938,7 +5938,7 @@
         <v>70</v>
       </c>
       <c r="K94">
-        <v>10</v>
+        <v>19.48611111111111</v>
       </c>
       <c r="L94">
         <v>8000</v>
@@ -5959,10 +5959,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R94">
-        <v>1.800714285714286</v>
+        <v>1.979555038534245</v>
       </c>
       <c r="S94">
-        <v>1.963947368421052</v>
+        <v>2.181809322722105</v>
       </c>
       <c r="T94">
         <v>30.73779937952481</v>
@@ -6003,7 +6003,7 @@
         <v>70</v>
       </c>
       <c r="K95">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L95">
         <v>8000</v>
@@ -6024,10 +6024,10 @@
         <v>5.330714285714286</v>
       </c>
       <c r="R95">
-        <v>1.800714285714286</v>
+        <v>1.880917929007461</v>
       </c>
       <c r="S95">
-        <v>1.963947368421052</v>
+        <v>2.06108460959076</v>
       </c>
       <c r="T95">
         <v>8.542175684527461</v>
@@ -6062,7 +6062,7 @@
         <v>82</v>
       </c>
       <c r="K96">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="L96">
         <v>8000</v>
@@ -6077,10 +6077,10 @@
         <v>42416.53177255418</v>
       </c>
       <c r="R96">
-        <v>2.983181818181818</v>
+        <v>3.247548358074673</v>
       </c>
       <c r="S96">
-        <v>3.590555555555556</v>
+        <v>3.987268648345484</v>
       </c>
       <c r="T96">
         <v>5.302066471569272</v>
